--- a/Rjeb Zied/PHPWebAfpa/Representant/docs/trad.xlsx
+++ b/Rjeb Zied/PHPWebAfpa/Representant/docs/trad.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
   <si>
     <t>codeTexte</t>
   </si>
@@ -100,6 +100,39 @@
   </si>
   <si>
     <t>ACCUEIL</t>
+  </si>
+  <si>
+    <t>Liste Utilisateur</t>
+  </si>
+  <si>
+    <t>Liste des Utilisateurs</t>
+  </si>
+  <si>
+    <t>Ajouter un Utilisateur</t>
+  </si>
+  <si>
+    <t>Les bouttons</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>Supprimer</t>
+  </si>
+  <si>
+    <t>List of Users</t>
+  </si>
+  <si>
+    <t>Add User</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Delete</t>
   </si>
 </sst>
 </file>
@@ -155,10 +188,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,28 +498,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H31"/>
+  <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B31"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="105.7109375" customWidth="1"/>
+    <col min="2" max="2" width="140.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="120.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -754,7 +787,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
-        <f t="shared" ref="B21:B33" si="0">"INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"""&amp;B6&amp;""","""&amp;C6&amp;""","""&amp;D6&amp;""");"</f>
+        <f t="shared" ref="B21:B31" si="0">"INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"""&amp;B6&amp;""","""&amp;C6&amp;""","""&amp;D6&amp;""");"</f>
         <v>INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"Users","FR","Users");</v>
       </c>
       <c r="F21" t="str">
@@ -862,9 +895,208 @@
         <v>INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"Reseaux","EN","Network");</v>
       </c>
     </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="str">
+        <f>B37</f>
+        <v>Liste des Utilisateurs</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="str">
+        <f>B38</f>
+        <v>Ajouter un Utilisateur</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f>"INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"""&amp;B37&amp;""","""&amp;C37&amp;""","""&amp;D37&amp;""");"</f>
+        <v>INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"Liste des Utilisateurs","FR","Liste des Utilisateurs");</v>
+      </c>
+      <c r="F40" t="str">
+        <f>"INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"""&amp;F37&amp;""","""&amp;G37&amp;""","""&amp;H37&amp;""");"</f>
+        <v>INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"Liste des Utilisateurs","EN","List of Users");</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="str">
+        <f>"INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"""&amp;B38&amp;""","""&amp;C38&amp;""","""&amp;D38&amp;""");"</f>
+        <v>INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"Ajouter un Utilisateur","FR","Ajouter un Utilisateur");</v>
+      </c>
+      <c r="F41" t="str">
+        <f>"INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"""&amp;F38&amp;""","""&amp;G38&amp;""","""&amp;H38&amp;""");"</f>
+        <v>INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"Ajouter un Utilisateur","EN","Add User");</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="str">
+        <f>B48</f>
+        <v>Details</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" ref="D49:D50" si="2">B49</f>
+        <v>Modifier</v>
+      </c>
+      <c r="F49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v>Supprimer</v>
+      </c>
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="str">
+        <f>"INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"""&amp;B48&amp;""","""&amp;C48&amp;""","""&amp;D48&amp;""");"</f>
+        <v>INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"Details","FR","Details");</v>
+      </c>
+      <c r="F52" t="str">
+        <f>"INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"""&amp;F48&amp;""","""&amp;G48&amp;""","""&amp;H48&amp;""");"</f>
+        <v>INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"Details","EN","Details");</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="str">
+        <f t="shared" ref="B53:B54" si="3">"INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"""&amp;B49&amp;""","""&amp;C49&amp;""","""&amp;D49&amp;""");"</f>
+        <v>INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"Modifier","FR","Modifier");</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" ref="F53:F54" si="4">"INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"""&amp;F49&amp;""","""&amp;G49&amp;""","""&amp;H49&amp;""");"</f>
+        <v>INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"Modifier","EN","Edit");</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"Supprimer","FR","Supprimer");</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Texte(idTexte, codeTexte, codeLangue, Texte) VALUES(NULL,"Supprimer","EN","Delete");</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
